--- a/LF/TAS/Burkina Faso/septembre 2021/bf_lf_tas3_3_resultat_sth_202109.xlsx
+++ b/LF/TAS/Burkina Faso/septembre 2021/bf_lf_tas3_3_resultat_sth_202109.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\septembre 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED06D174-BA18-49E8-B4C2-E773978DDFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -119,12 +125,6 @@
   </si>
   <si>
     <t>Entrer le code manuel</t>
-  </si>
-  <si>
-    <t>regex(.,'^[a-zA-Z]{2}[0-9]{4}$')</t>
-  </si>
-  <si>
-    <t>le format du code manuel manuel est de 2 lettres suivies de 4 chiffres</t>
   </si>
   <si>
     <t>${id_methode} = "Manuel"</t>
@@ -844,18 +844,18 @@
   <si>
     <t>French</t>
   </si>
+  <si>
+    <t>le format du code manuel est de 2 lettres suivies de 5 chiffres</t>
+  </si>
+  <si>
+    <t>regex(.,'^[a-zA-Z]{2}[0-9]{5}$')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,150 +901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1053,7 +909,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,194 +934,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1290,262 +960,20 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1598,61 +1026,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1672,22 +1052,25 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
-      <color rgb="00FFCCFF"/>
-      <color rgb="00FFFFCC"/>
-      <color rgb="00CCECFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1945,33 +1328,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:F8"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="31.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.5833333333333" customWidth="1"/>
-    <col min="3" max="4" width="49.7" customWidth="1"/>
-    <col min="5" max="5" width="16.7" customWidth="1"/>
-    <col min="6" max="6" width="15.2916666666667" customWidth="1"/>
-    <col min="7" max="7" width="53.7" customWidth="1"/>
-    <col min="8" max="8" width="14.4083333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.4083333333333" customWidth="1"/>
+    <col min="1" max="1" width="31.1171875" customWidth="1"/>
+    <col min="2" max="2" width="22.5859375" customWidth="1"/>
+    <col min="3" max="4" width="49.703125" customWidth="1"/>
+    <col min="5" max="5" width="16.703125" customWidth="1"/>
+    <col min="6" max="6" width="15.29296875" customWidth="1"/>
+    <col min="7" max="7" width="53.703125" customWidth="1"/>
+    <col min="8" max="8" width="14.41015625" customWidth="1"/>
+    <col min="9" max="9" width="15.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="18.75" spans="1:9">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="18">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +1401,7 @@
       </c>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" ht="15.7">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2078,7 +1460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +1476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
@@ -2114,7 +1496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:8">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
@@ -2126,755 +1508,751 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15.7">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:8">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:8">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:8">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:8">
+    <row r="13" spans="1:9" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:8">
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:8">
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:8">
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:8">
+    <row r="17" spans="1:10" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:8">
+    <row r="18" spans="1:10" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:8">
+    <row r="19" spans="1:10" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:8">
+    <row r="20" spans="1:10" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9"/>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="21" customHeight="1" spans="1:9">
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:8">
+    <row r="23" spans="1:10" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:8">
+    <row r="24" spans="1:10" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:10" ht="15.7">
+      <c r="A27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:10">
       <c r="B30" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D27"/>
+      <selection sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8166666666667" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="19.2916666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" customWidth="1"/>
+    <col min="3" max="3" width="19.29296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:4">
+    </row>
+    <row r="2" spans="1:5" ht="34.5" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" ht="42.75" customHeight="1" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:4">
+    </row>
+    <row r="4" spans="1:5" ht="29">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.35">
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.7">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.7">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.7">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:5" ht="28.7">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" ht="30" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.7">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="30" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.7">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="30" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="43">
+      <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" ht="30" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="D14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="28.7">
+      <c r="A15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" ht="30" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43">
+      <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.7">
+      <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43">
+      <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" ht="45" spans="1:4">
+    </row>
+    <row r="23" spans="1:5" ht="43">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.7">
+      <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:5">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:5">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="1:5">
       <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44.7" customWidth="1"/>
-    <col min="3" max="3" width="19.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="44.703125" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2883,471 +2261,468 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11666666666667" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="23.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
         <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>